--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11784" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11784" windowHeight="8160" tabRatio="277"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="to do list" sheetId="2" r:id="rId1"/>
+    <sheet name="Changes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Fichier</t>
-  </si>
-  <si>
-    <t>Ajouts/Modifications</t>
   </si>
   <si>
     <t>HTML</t>
@@ -87,12 +82,141 @@
   <si>
     <t>Links to the 4 other parts listed in nav (3 pages web + contact with direct open mail)</t>
   </si>
+  <si>
+    <t>&lt;img src="./bg_img.jpg" alt="img" /&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>capitalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>line 449</t>
+  </si>
+  <si>
+    <t>Capital letter J lines 44 / 51</t>
+  </si>
+  <si>
+    <t>Ajouter la fonctionnalité au bouton (x)</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TODO: fermer la modale</t>
+  </si>
+  <si>
+    <t>Implémenter entrées du formulaire</t>
+  </si>
+  <si>
+    <t>Ajouter validation ou messages d'erreur</t>
+  </si>
+  <si>
+    <t>Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
+"Veuillez entrer 2 caractères ou plus pour le champ du nom."
+"Vous devez choisir une option."
+"Vous devez vérifier que vous acceptez les termes et conditions."
+"Vous devez entrer votre date de naissance."</t>
+  </si>
+  <si>
+    <t>Ajouter confirmation quand envoi réussi</t>
+  </si>
+  <si>
+    <t>Après une validation réussie, inclure un message de confirmation de la soumission réussie pour l'utilisateur (ex. "Merci ! Votre réservation a été reçue.")</t>
+  </si>
+  <si>
+    <t>Tests manuels</t>
+  </si>
+  <si>
+    <t>Visualiser et tester l'interface utilisateur dans les dernières versions de Chrome et de Firefox, ainsi que dans les versions mobile et desktop. Corriger les erreurs d'affichage existantes.
+Tester toutes les fonctionnalités des boutons et des entrées de formulaire (tester les valeurs correctes et incorrectes)</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>(1) Lier les labels aux entrées dans le HTML en utilisant les attributs "for" et "id" dans le code existant. 
+Corriger le code HTML quand nécessaire.
+(2) Utiliser du JavaScript pur (pas de jQuery) pour terminer le formulaire :
+Le formulaire doit être valide quand l'utilisateur clique sur "Submit"
+Les données doivent être saisies correctement :
+(1) Le champ Prénom a un minimum de 2 caractères / n'est pas vide.
+(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.
+(3) L'adresse électronique est valide.
+(4) Pour le nombre de concours, une valeur numérique est saisie.
+(5) Un bouton radio est sélectionné.
+(6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
+Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
+  </si>
+  <si>
+    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fait avec David le 25/6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +256,44 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,11 +301,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +335,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +661,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="8"/>
+    <col min="3" max="3" width="35.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="90.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -483,16 +804,16 @@
         <v>44370</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,16 +821,16 @@
         <v>44370</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,16 +838,16 @@
         <v>44371</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -534,13 +855,61 @@
         <v>44371</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11784" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="to do list" sheetId="2" r:id="rId1"/>
+    <sheet name="Changes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Fichier</t>
-  </si>
-  <si>
-    <t>Ajouts/Modifications</t>
   </si>
   <si>
     <t>HTML</t>
@@ -87,12 +82,141 @@
   <si>
     <t>Links to the 4 other parts listed in nav (3 pages web + contact with direct open mail)</t>
   </si>
+  <si>
+    <t>&lt;img src="./bg_img.jpg" alt="img" /&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>capitalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Capital letter J lines 44 / 51</t>
+  </si>
+  <si>
+    <t>Ajouter la fonctionnalité au bouton (x)</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TODO: fermer la modale</t>
+  </si>
+  <si>
+    <t>Implémenter entrées du formulaire</t>
+  </si>
+  <si>
+    <t>Ajouter validation ou messages d'erreur</t>
+  </si>
+  <si>
+    <t>Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
+"Veuillez entrer 2 caractères ou plus pour le champ du nom."
+"Vous devez choisir une option."
+"Vous devez vérifier que vous acceptez les termes et conditions."
+"Vous devez entrer votre date de naissance."</t>
+  </si>
+  <si>
+    <t>Ajouter confirmation quand envoi réussi</t>
+  </si>
+  <si>
+    <t>Après une validation réussie, inclure un message de confirmation de la soumission réussie pour l'utilisateur (ex. "Merci ! Votre réservation a été reçue.")</t>
+  </si>
+  <si>
+    <t>Tests manuels</t>
+  </si>
+  <si>
+    <t>Visualiser et tester l'interface utilisateur dans les dernières versions de Chrome et de Firefox, ainsi que dans les versions mobile et desktop. Corriger les erreurs d'affichage existantes.
+Tester toutes les fonctionnalités des boutons et des entrées de formulaire (tester les valeurs correctes et incorrectes)</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>(1) Lier les labels aux entrées dans le HTML en utilisant les attributs "for" et "id" dans le code existant. 
+Corriger le code HTML quand nécessaire.
+(2) Utiliser du JavaScript pur (pas de jQuery) pour terminer le formulaire :
+Le formulaire doit être valide quand l'utilisateur clique sur "Submit"
+Les données doivent être saisies correctement :
+(1) Le champ Prénom a un minimum de 2 caractères / n'est pas vide.
+(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.
+(3) L'adresse électronique est valide.
+(4) Pour le nombre de concours, une valeur numérique est saisie.
+(5) Un bouton radio est sélectionné.
+(6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
+Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
+  </si>
+  <si>
+    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fait avec David le 25/6</t>
+  </si>
+  <si>
+    <t>line 451</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +256,44 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,11 +301,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +335,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +661,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="8"/>
+    <col min="3" max="3" width="35.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="90.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -483,16 +804,16 @@
         <v>44370</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,16 +821,16 @@
         <v>44370</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,16 +838,16 @@
         <v>44371</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -534,13 +855,61 @@
         <v>44371</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="to do list" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -183,40 +183,115 @@
     <t>File</t>
   </si>
   <si>
-    <t>(1) Lier les labels aux entrées dans le HTML en utilisant les attributs "for" et "id" dans le code existant. 
+    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fait avec David le 25/6</t>
+  </si>
+  <si>
+    <t>line 451</t>
+  </si>
+  <si>
+    <t>line 66 id=myForm</t>
+  </si>
+  <si>
+    <t>span "error" for each input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inputs prénom nom email &amp; date naissance by adding class &amp; attribut "for" </t>
+  </si>
+  <si>
+    <t>min-lenght 2 for the input prénom (to avoid Chrome message instead of my own error message)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(1) Lier les labels aux entrées dans le HTML en utilisant les attributs "for" et "id" dans le code existant. 
 Corriger le code HTML quand nécessaire.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (2) Utiliser du JavaScript pur (pas de jQuery) pour terminer le formulaire :
 Le formulaire doit être valide quand l'utilisateur clique sur "Submit"
 Les données doivent être saisies correctement :
-(1) Le champ Prénom a un minimum de 2 caractères / n'est pas vide.
-(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1) Le champ Prénom a un minimum de 2 caractères / n'est pas vide.
+(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (3) L'adresse électronique est valide.
-(4) Pour le nombre de concours, une valeur numérique est saisie.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4) Pour le nombre de concours, une valeur numérique est saisie.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (5) Un bouton radio est sélectionné.
 (6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
 Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
-  </si>
-  <si>
-    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
-  </si>
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>fait avec David le 25/6</t>
-  </si>
-  <si>
-    <t>line 451</t>
+    </r>
+  </si>
+  <si>
+    <t>type:mail line 93</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +349,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -663,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>32</v>
@@ -694,7 +776,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>17</v>
@@ -706,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -719,10 +801,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -765,15 +847,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -910,6 +993,76 @@
       </c>
       <c r="D8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277"/>
   </bookViews>
   <sheets>
     <sheet name="to do list" sheetId="2" r:id="rId1"/>
@@ -210,6 +210,9 @@
     <t>min-lenght 2 for the input prénom (to avoid Chrome message instead of my own error message)</t>
   </si>
   <si>
+    <t>type:mail line 93</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -256,7 +259,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-(3) L'adresse électronique est valide.
 </t>
     </r>
     <r>
@@ -267,7 +269,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(4) Pour le nombre de concours, une valeur numérique est saisie.</t>
+      <t>(3) L'adresse électronique est valide.</t>
     </r>
     <r>
       <rPr>
@@ -278,13 +280,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4) Pour le nombre de concours, une valeur numérique est saisie.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (5) Un bouton radio est sélectionné.
 (6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
-Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
-    </r>
-  </si>
-  <si>
-    <t>type:mail line 93</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -745,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>34</v>
@@ -855,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1062,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>type:mail line 93</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>new branch dev#4 from dev#2</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1071,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277"/>
   </bookViews>
   <sheets>
     <sheet name="to do list" sheetId="2" r:id="rId1"/>
@@ -157,57 +157,88 @@
     <t>Ajouter validation ou messages d'erreur</t>
   </si>
   <si>
-    <t>Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
-"Veuillez entrer 2 caractères ou plus pour le champ du nom."
+    <t>Ajouter confirmation quand envoi réussi</t>
+  </si>
+  <si>
+    <t>Après une validation réussie, inclure un message de confirmation de la soumission réussie pour l'utilisateur (ex. "Merci ! Votre réservation a été reçue.")</t>
+  </si>
+  <si>
+    <t>Tests manuels</t>
+  </si>
+  <si>
+    <t>Visualiser et tester l'interface utilisateur dans les dernières versions de Chrome et de Firefox, ainsi que dans les versions mobile et desktop. Corriger les erreurs d'affichage existantes.
+Tester toutes les fonctionnalités des boutons et des entrées de formulaire (tester les valeurs correctes et incorrectes)</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fait avec David le 25/6</t>
+  </si>
+  <si>
+    <t>line 451</t>
+  </si>
+  <si>
+    <t>line 66 id=myForm</t>
+  </si>
+  <si>
+    <t>span "error" for each input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inputs prénom nom email &amp; date naissance by adding class &amp; attribut "for" </t>
+  </si>
+  <si>
+    <t>min-lenght 2 for the input prénom (to avoid Chrome message instead of my own error message)</t>
+  </si>
+  <si>
+    <t>type:mail line 93</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>new branch dev#4 from dev#2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Veuillez entrer 2 caractères ou plus pour le champ du nom."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 "Vous devez choisir une option."
 "Vous devez vérifier que vous acceptez les termes et conditions."
 "Vous devez entrer votre date de naissance."</t>
-  </si>
-  <si>
-    <t>Ajouter confirmation quand envoi réussi</t>
-  </si>
-  <si>
-    <t>Après une validation réussie, inclure un message de confirmation de la soumission réussie pour l'utilisateur (ex. "Merci ! Votre réservation a été reçue.")</t>
-  </si>
-  <si>
-    <t>Tests manuels</t>
-  </si>
-  <si>
-    <t>Visualiser et tester l'interface utilisateur dans les dernières versions de Chrome et de Firefox, ainsi que dans les versions mobile et desktop. Corriger les erreurs d'affichage existantes.
-Tester toutes les fonctionnalités des boutons et des entrées de formulaire (tester les valeurs correctes et incorrectes)</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Récupérer la valeur de chaque input et faire une vérification de chaque valeur; si erreur message as per #3</t>
-  </si>
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>fait avec David le 25/6</t>
-  </si>
-  <si>
-    <t>line 451</t>
-  </si>
-  <si>
-    <t>line 66 id=myForm</t>
-  </si>
-  <si>
-    <t>span "error" for each input</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inputs prénom nom email &amp; date naissance by adding class &amp; attribut "for" </t>
-  </si>
-  <si>
-    <t>min-lenght 2 for the input prénom (to avoid Chrome message instead of my own error message)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -256,7 +287,27 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-(3) L'adresse électronique est valide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3) L'adresse électronique est valide.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -283,21 +334,12 @@
 Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
     </r>
   </si>
-  <si>
-    <t>type:mail line 93</t>
-  </si>
-  <si>
-    <t>GIT</t>
-  </si>
-  <si>
-    <t>new branch dev#4 from dev#2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +404,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -767,10 +816,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>22</v>
@@ -782,7 +831,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>17</v>
@@ -794,7 +843,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -807,10 +856,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -823,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -833,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -845,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -981,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -1012,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1026,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1040,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1054,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,13 +1125,13 @@
         <v>44377</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="to do list" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -333,6 +333,12 @@
 (6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
 Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
     </r>
+  </si>
+  <si>
+    <t>lines 230 - 234 back to code instead of comments</t>
+  </si>
+  <si>
+    <t>/* style pages sup from nav*/ lines 530 to 541</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,6 +1140,34 @@
         <v>44</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44382</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44382</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="277" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="to do list" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -212,33 +212,10 @@
     <t>new branch dev#4 from dev#2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Veuillez entrer 2 caractères ou plus pour le champ du nom."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Vous devez choisir une option."
-"Vous devez vérifier que vous acceptez les termes et conditions."
-"Vous devez entrer votre date de naissance."</t>
-    </r>
+    <t>lines 230 - 234 back to code instead of comments</t>
+  </si>
+  <si>
+    <t>/* style pages sup from nav*/ lines 530 to 541</t>
   </si>
   <si>
     <r>
@@ -276,28 +253,10 @@
         <scheme val="minor"/>
       </rPr>
       <t>(1) Le champ Prénom a un minimum de 2 caractères / n'est pas vide.
-(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3) L'adresse électronique est valide.</t>
+(2) Le champ du nom de famille a un minimum de 2 caractères / n'est pas vide.
+(3) L'adresse électronique est valide.
+(4) Pour le nombre de concours, une valeur numérique est saisie.
+(5) Un bouton radio est sélectionné.</t>
     </r>
     <r>
       <rPr>
@@ -318,34 +277,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(4) Pour le nombre de concours, une valeur numérique est saisie.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(5) Un bouton radio est sélectionné.
-(6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
+      <t>(6) La case des conditions générales est cochée, l'autre case est facultative / peut être laissée décochée.
 Conserver les données du formulaire (ne pas effacer le formulaire) lorsqu'il ne passe pas la validation.</t>
     </r>
   </si>
   <si>
-    <t>lines 230 - 234 back to code instead of comments</t>
-  </si>
-  <si>
-    <t>/* style pages sup from nav*/ lines 530 to 541</t>
+    <t>Des messages d'erreur spécifiques doivent apparaître sous l'entrée qui n'est pas correcte. Les messages d'erreur doivent s'afficher sous le champ de saisie associé. Exemples :
+"Veuillez entrer 2 caractères ou plus pour le champ du nom."
+"Vous devez choisir une option."
+"Vous devez vérifier que vous acceptez les termes et conditions."
+"Vous devez entrer votre date de naissance."</t>
+  </si>
+  <si>
+    <t>id="mySubmit" line 217</t>
+  </si>
+  <si>
+    <t>maxlength pour nom/prenom à 20 digits max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,13 +368,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -463,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +757,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>33</v>
@@ -877,8 +827,8 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>45</v>
+      <c r="D4" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -914,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1165,7 +1115,35 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44383</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44383</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>new branch dev#4 from dev#2</t>
-  </si>
-  <si>
-    <t>lines 230 - 234 back to code instead of comments</t>
   </si>
   <si>
     <t>/* style pages sup from nav*/ lines 530 to 541</t>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>maxlength pour nom/prenom à 20 digits max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originally as comments -&gt; lines 230 - 234 back to code instead </t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>33</v>
@@ -828,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -867,7 +867,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Project_GameOn_FollowUp_Table.xlsx
+++ b/Project_GameOn_FollowUp_Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t xml:space="preserve">originally as comments -&gt; lines 230 - 234 back to code instead </t>
+  </si>
+  <si>
+    <t>width="auto" height="auto"</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt; - extra div unnecessary</t>
+  </si>
+  <si>
+    <t>Responsive: add max-width: 480px for hero-text &amp; hero-headline not to be cropped on smaller mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logo to modal confirmation </t>
+  </si>
+  <si>
+    <t>margin &amp; height for confirmation modal to be as big as form modal</t>
   </si>
 </sst>
 </file>
@@ -864,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D23:D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,6 +1161,76 @@
         <v>49</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44390</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44390</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44390</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44390</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44390</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
